--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SMT 4\TBA\Tubes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SMT 4\TBA\Tubes\Tubes-TBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E880F5E-A5FA-46BE-8A8A-E6A5B4E09E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9097024-C6FB-42F1-9943-74A0538C140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="3456" windowWidth="17280" windowHeight="8880" xr2:uid="{51B20F51-DD29-4E55-B891-8B32D904F067}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{51B20F51-DD29-4E55-B891-8B32D904F067}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>S</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>manuk</t>
+  </si>
+  <si>
+    <t>banyu</t>
   </si>
 </sst>
 </file>
@@ -434,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5E67B3-529E-4D34-90F8-3AAB7D65FA76}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -465,19 +468,22 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -514,8 +520,11 @@
       <c r="L2" t="s">
         <v>12</v>
       </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -541,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -552,8 +561,11 @@
       <c r="L3" t="s">
         <v>12</v>
       </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -579,15 +591,18 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>12</v>
       </c>
     </row>
